--- a/docs/shrcore/shr-core-AllergyIntolerance-model.xlsx
+++ b/docs/shrcore/shr-core-AllergyIntolerance-model.xlsx
@@ -254,14 +254,14 @@
     <t>The person who provided the information, not necessarily the patient.</t>
   </si>
   <si>
-    <t>shr-core-AllergyIntolerance-model.allergyRecorder[x]</t>
+    <t>shr-core-AllergyIntolerance-model.allergyAuthor[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model]]}
 </t>
   </si>
   <si>
-    <t>A choice of Patient or Practitioner as recorder.</t>
+    <t>A choice of Patient or Practitioner as author.</t>
   </si>
   <si>
     <t>shr-core-AllergyIntolerance-model.clinicalStatus</t>
@@ -479,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
